--- a/mySystem/mySystem/xls/LDPEBag/1 SOP-MFG-304-R01A 1#制袋工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/1 SOP-MFG-304-R01A 1#制袋工序生产指令.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\LDPEBag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mitcpro\mySystem\mySystem\xls\LDPEBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="555" yWindow="75" windowWidth="17910" windowHeight="6810"/>
+    <workbookView xWindow="555" yWindow="75" windowWidth="17910" windowHeight="6810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20160301" sheetId="2" r:id="rId1"/>
@@ -250,18 +250,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>只</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内标签</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>张</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>外包</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -317,10 +309,6 @@
       </rPr>
       <t>箱</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1642,18 +1630,29 @@
   </si>
   <si>
     <t>药品包装用聚乙烯膜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0;_一"/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
@@ -1764,7 +1763,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -2206,19 +2205,6 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -2450,7 +2436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2526,23 +2512,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2577,7 +2551,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2610,35 +2584,104 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2646,13 +2689,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2682,7 +2725,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2691,77 +2734,92 @@
     <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2845,99 +2903,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3008,7 +2973,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3299,353 +3264,353 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="61" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="61" customWidth="1"/>
-    <col min="3" max="4" width="13.25" style="61" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="61" customWidth="1"/>
-    <col min="6" max="7" width="7.75" style="61" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="61" customWidth="1"/>
-    <col min="9" max="9" width="6.25" style="61" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="61" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="61"/>
+    <col min="1" max="1" width="8.375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="57" customWidth="1"/>
+    <col min="3" max="4" width="13.25" style="57" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="57" customWidth="1"/>
+    <col min="6" max="7" width="7.75" style="57" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="57" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="57" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="57" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:10" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="35" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+    </row>
+    <row r="3" spans="1:10" s="35" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38" t="s">
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+    </row>
+    <row r="4" spans="1:10" s="35" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="91" t="s">
         <v>44</v>
       </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="94"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="99"/>
     </row>
-    <row r="2" spans="1:10" s="39" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+    <row r="5" spans="1:10" s="35" customFormat="1" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="81"/>
+      <c r="J5" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="35" customFormat="1" ht="27.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="39">
+        <v>1</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+    </row>
+    <row r="7" spans="1:10" s="35" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="60"/>
+      <c r="J7" s="49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="35" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="78"/>
+    </row>
+    <row r="9" spans="1:10" s="54" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="79"/>
+    </row>
+    <row r="10" spans="1:10" s="54" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="71"/>
+      <c r="B10" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="79"/>
+    </row>
+    <row r="11" spans="1:10" s="54" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="71"/>
+      <c r="B11" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="79"/>
+    </row>
+    <row r="12" spans="1:10" s="54" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="71"/>
+      <c r="B12" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="80"/>
+    </row>
+    <row r="13" spans="1:10" s="54" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="74"/>
+    </row>
+    <row r="14" spans="1:10" s="54" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="71"/>
+      <c r="B14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" spans="1:10" s="35" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="72"/>
+      <c r="B15" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="76"/>
+    </row>
+    <row r="16" spans="1:10" s="35" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
+    </row>
+    <row r="17" spans="1:10" s="35" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="66"/>
+    </row>
+    <row r="18" spans="1:10" s="35" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-    </row>
-    <row r="3" spans="1:10" s="39" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-    </row>
-    <row r="4" spans="1:10" s="39" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
-    </row>
-    <row r="5" spans="1:10" s="39" customFormat="1" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="39" customFormat="1" ht="27.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="43">
-        <v>1</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-    </row>
-    <row r="7" spans="1:10" s="39" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="39" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="84"/>
-    </row>
-    <row r="9" spans="1:10" s="58" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="85"/>
-    </row>
-    <row r="10" spans="1:10" s="58" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="87"/>
-      <c r="B10" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="85"/>
-    </row>
-    <row r="11" spans="1:10" s="58" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="87"/>
-      <c r="B11" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="85"/>
-    </row>
-    <row r="12" spans="1:10" s="58" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="87"/>
-      <c r="B12" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="86"/>
-    </row>
-    <row r="13" spans="1:10" s="58" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="89"/>
-    </row>
-    <row r="14" spans="1:10" s="58" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="87"/>
-      <c r="B14" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="90"/>
-    </row>
-    <row r="15" spans="1:10" s="39" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="88"/>
-      <c r="B15" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="91"/>
-    </row>
-    <row r="16" spans="1:10" s="39" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="96"/>
-    </row>
-    <row r="17" spans="1:10" s="39" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="99"/>
-    </row>
-    <row r="18" spans="1:10" s="39" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="100" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="103"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="J8:J12"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="C9:D9"/>
@@ -3656,20 +3621,20 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G6">
@@ -3691,32 +3656,32 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="26.375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="20" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="34" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="34" customWidth="1"/>
-    <col min="7" max="7" width="9" style="34" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="34" customWidth="1"/>
-    <col min="9" max="9" width="7" style="34" customWidth="1"/>
-    <col min="10" max="10" width="7.25" style="34" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="20" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="30" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9" style="30" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="30" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="7.25" style="30" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="30" customWidth="1"/>
     <col min="12" max="12" width="2.375" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="34"/>
+    <col min="13" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>40</v>
+      <c r="A1" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3728,76 +3693,76 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
+      <c r="A2" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="120" t="s">
+      <c r="A3" s="129" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="130"/>
+      <c r="C3" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="123"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="147"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="124" t="s">
+      <c r="A4" s="131"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="127"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="150" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="151"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="109"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="128" t="s">
+      <c r="A5" s="133"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="129"/>
-      <c r="H5" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="154" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="155"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
@@ -3821,14 +3786,14 @@
       <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133" t="s">
+      <c r="I6" s="123"/>
+      <c r="J6" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="134"/>
+      <c r="K6" s="125"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="27.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
@@ -3852,210 +3817,209 @@
       <c r="B8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135" t="s">
+      <c r="D8" s="101"/>
+      <c r="E8" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135" t="s">
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="135"/>
-      <c r="J8" s="136" t="s">
+      <c r="I8" s="101"/>
+      <c r="J8" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="137"/>
+      <c r="K8" s="127"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="22"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
       <c r="H9" s="23"/>
       <c r="I9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="139"/>
-      <c r="K9" s="140"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
     </row>
-    <row r="10" spans="1:11" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="145" t="s">
+    <row r="10" spans="1:11" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="108" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="25"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="119"/>
+      <c r="K10" s="120"/>
+    </row>
+    <row r="11" spans="1:11" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="108"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="120"/>
+    </row>
+    <row r="12" spans="1:11" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="108"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="120"/>
+    </row>
+    <row r="13" spans="1:11" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="108"/>
+      <c r="B13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="141"/>
-      <c r="K10" s="142"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="121"/>
+      <c r="K13" s="122"/>
     </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="145"/>
-      <c r="B11" s="24" t="s">
+    <row r="14" spans="1:11" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="143"/>
-      <c r="K11" s="144"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="111"/>
+      <c r="K14" s="112"/>
     </row>
-    <row r="12" spans="1:11" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="145" t="s">
+    <row r="15" spans="1:11" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="108"/>
+      <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="113"/>
+      <c r="K15" s="114"/>
+    </row>
+    <row r="16" spans="1:11" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="109"/>
+      <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="148"/>
-      <c r="K12" s="149"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="115"/>
+      <c r="K16" s="116"/>
     </row>
-    <row r="13" spans="1:11" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="145"/>
-      <c r="B13" s="24" t="s">
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="146"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="22" t="s">
+      <c r="B17" s="101"/>
+      <c r="C17" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="150"/>
-      <c r="K13" s="151"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
     </row>
-    <row r="14" spans="1:11" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="147"/>
-      <c r="B14" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="152"/>
-      <c r="K14" s="153"/>
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="135"/>
-      <c r="C15" s="31" t="s">
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33"/>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="159" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="160"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="161"/>
-    </row>
-    <row r="17" spans="1:11" s="4" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="158"/>
-      <c r="C17" s="158" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="162"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
+  <mergeCells count="40">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:B5"/>
     <mergeCell ref="C3:E5"/>
@@ -4065,6 +4029,37 @@
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="J9:K13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="J14:K16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="G19:K19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G7">

--- a/mySystem/mySystem/xls/LDPEBag/1 SOP-MFG-304-R01A 1#制袋工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/1 SOP-MFG-304-R01A 1#制袋工序生产指令.xlsx
@@ -197,10 +197,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>订单号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>工序</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1642,6 +1638,10 @@
   </si>
   <si>
     <t>个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户或订单号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1653,7 +1653,7 @@
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1763,7 +1763,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -2427,6 +2427,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2436,7 +2449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2488,21 +2501,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2614,6 +2618,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2704,10 +2711,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2731,10 +2738,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2761,57 +2768,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2820,6 +2827,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2904,6 +2917,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3270,330 +3286,330 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="57" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="57" customWidth="1"/>
-    <col min="3" max="4" width="13.25" style="57" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="57" customWidth="1"/>
-    <col min="6" max="7" width="7.75" style="57" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="57" customWidth="1"/>
-    <col min="9" max="9" width="6.25" style="57" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="57" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="57"/>
+    <col min="1" max="1" width="8.375" style="54" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="54" customWidth="1"/>
+    <col min="3" max="4" width="13.25" style="54" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="54" customWidth="1"/>
+    <col min="6" max="7" width="7.75" style="54" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="54" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="54" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="54" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:10" s="32" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34" t="s">
+    </row>
+    <row r="2" spans="1:10" s="32" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+    </row>
+    <row r="3" spans="1:10" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="82" t="s">
         <v>41</v>
       </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="88"/>
     </row>
-    <row r="2" spans="1:10" s="35" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+    <row r="4" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="90"/>
+      <c r="C4" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="97"/>
+    </row>
+    <row r="5" spans="1:10" s="32" customFormat="1" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="79"/>
+      <c r="J5" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="32" customFormat="1" ht="27.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+    </row>
+    <row r="7" spans="1:10" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="58"/>
+      <c r="J7" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="76"/>
+    </row>
+    <row r="9" spans="1:10" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="77"/>
+    </row>
+    <row r="10" spans="1:10" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="69"/>
+      <c r="B10" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="77"/>
+    </row>
+    <row r="11" spans="1:10" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="69"/>
+      <c r="B11" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="77"/>
+    </row>
+    <row r="12" spans="1:10" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="69"/>
+      <c r="B12" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="78"/>
+    </row>
+    <row r="13" spans="1:10" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="72"/>
+    </row>
+    <row r="14" spans="1:10" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="69"/>
+      <c r="B14" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="73"/>
+    </row>
+    <row r="15" spans="1:10" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="70"/>
+      <c r="B15" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="74"/>
+    </row>
+    <row r="16" spans="1:10" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
+    </row>
+    <row r="17" spans="1:10" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="64"/>
+    </row>
+    <row r="18" spans="1:10" s="32" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-    </row>
-    <row r="3" spans="1:10" s="35" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90"/>
-    </row>
-    <row r="4" spans="1:10" s="35" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="99"/>
-    </row>
-    <row r="5" spans="1:10" s="35" customFormat="1" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="35" customFormat="1" ht="27.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39">
-        <v>1</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="46"/>
-    </row>
-    <row r="7" spans="1:10" s="35" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="35" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="78"/>
-    </row>
-    <row r="9" spans="1:10" s="54" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="79"/>
-    </row>
-    <row r="10" spans="1:10" s="54" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="71"/>
-      <c r="B10" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="79"/>
-    </row>
-    <row r="11" spans="1:10" s="54" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="71"/>
-      <c r="B11" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="79"/>
-    </row>
-    <row r="12" spans="1:10" s="54" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="71"/>
-      <c r="B12" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="80"/>
-    </row>
-    <row r="13" spans="1:10" s="54" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="74"/>
-    </row>
-    <row r="14" spans="1:10" s="54" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="71"/>
-      <c r="B14" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="75"/>
-    </row>
-    <row r="15" spans="1:10" s="35" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="76"/>
-    </row>
-    <row r="16" spans="1:10" s="35" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
-    </row>
-    <row r="17" spans="1:10" s="35" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
-    </row>
-    <row r="18" spans="1:10" s="35" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
+      <c r="B18" s="66"/>
+      <c r="C18" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69" t="s">
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="70"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -3656,32 +3672,32 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="26.375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="20" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="30" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="9" style="30" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="30" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="7.25" style="30" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="20" style="27" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="27" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="27" customWidth="1"/>
+    <col min="10" max="10" width="7.25" style="27" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="27" customWidth="1"/>
     <col min="12" max="12" width="2.375" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="30"/>
+    <col min="13" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>37</v>
+      <c r="A1" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3693,12 +3709,12 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
@@ -3713,11 +3729,11 @@
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="130"/>
       <c r="C3" s="135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="136"/>
       <c r="E3" s="137"/>
@@ -3741,7 +3757,7 @@
       </c>
       <c r="G4" s="149"/>
       <c r="H4" s="150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="150"/>
       <c r="J4" s="150"/>
@@ -3758,7 +3774,7 @@
       </c>
       <c r="G5" s="153"/>
       <c r="H5" s="154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="154"/>
       <c r="J5" s="154"/>
@@ -3786,14 +3802,14 @@
       <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="125"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="156" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="123"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="27.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
@@ -3807,219 +3823,232 @@
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="127"/>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="C8" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="D8" s="99"/>
+      <c r="E8" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101" t="s">
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101" t="s">
+      <c r="I8" s="99"/>
+      <c r="J8" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="127"/>
+      <c r="K8" s="125"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="98"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24" t="s">
+      <c r="J10" s="118"/>
+      <c r="K10" s="119"/>
+    </row>
+    <row r="11" spans="1:11" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="117"/>
-      <c r="K9" s="118"/>
+      <c r="B11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="118"/>
+      <c r="K11" s="119"/>
     </row>
-    <row r="10" spans="1:11" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="24" t="s">
+    <row r="12" spans="1:11" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="114"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="119"/>
+    </row>
+    <row r="13" spans="1:11" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="114"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="119"/>
+    </row>
+    <row r="14" spans="1:11" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="114"/>
+      <c r="B14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24" t="s">
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="119"/>
-      <c r="K10" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="121"/>
     </row>
-    <row r="11" spans="1:11" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="108"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="120"/>
+    <row r="15" spans="1:11" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="106"/>
+      <c r="K15" s="107"/>
     </row>
-    <row r="12" spans="1:11" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="108"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="120"/>
+    <row r="16" spans="1:11" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="114"/>
+      <c r="B16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="108"/>
+      <c r="K16" s="109"/>
     </row>
-    <row r="13" spans="1:11" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="108"/>
-      <c r="B13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="121"/>
-      <c r="K13" s="122"/>
-    </row>
-    <row r="14" spans="1:11" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="111"/>
-      <c r="K14" s="112"/>
-    </row>
-    <row r="15" spans="1:11" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="108"/>
-      <c r="B15" s="24" t="s">
+    <row r="17" spans="1:11" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="115"/>
+      <c r="B17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" s="113"/>
-      <c r="K15" s="114"/>
-    </row>
-    <row r="16" spans="1:11" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="109"/>
-      <c r="B16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="115"/>
-      <c r="K16" s="116"/>
-    </row>
-    <row r="17" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="110"/>
+      <c r="K17" s="111"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="106"/>
+      <c r="A18" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="99"/>
+      <c r="C18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
     </row>
-    <row r="19" spans="1:11" s="4" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="103"/>
-      <c r="C19" s="103" t="s">
-        <v>38</v>
-      </c>
+      <c r="C19" s="103"/>
       <c r="D19" s="103"/>
       <c r="E19" s="103"/>
       <c r="F19" s="103"/>
-      <c r="G19" s="103" t="s">
-        <v>32</v>
-      </c>
+      <c r="G19" s="103"/>
       <c r="H19" s="103"/>
       <c r="I19" s="103"/>
       <c r="J19" s="103"/>
-      <c r="K19" s="107"/>
+      <c r="K19" s="104"/>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="44">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:B5"/>
     <mergeCell ref="C3:E5"/>
@@ -4029,37 +4058,41 @@
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="J9:K14"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="J9:K13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A14:A16"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:G14"/>
-    <mergeCell ref="J14:K16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="J15:K17"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="G20:K20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G7">

--- a/mySystem/mySystem/xls/LDPEBag/1 SOP-MFG-304-R01A 1#制袋工序生产指令.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/1 SOP-MFG-304-R01A 1#制袋工序生产指令.xlsx
@@ -13,14 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="20160301" sheetId="2" r:id="rId1"/>
-    <sheet name="制袋生产指令" sheetId="1" r:id="rId2"/>
+    <sheet name="0204" sheetId="3" r:id="rId2"/>
+    <sheet name="制袋生产指令" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
   <si>
     <r>
       <rPr>
@@ -1642,6 +1643,129 @@
   </si>
   <si>
     <t>客户或订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户或订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP-MFG-304-R01A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品代码（规格型号）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颇尔奥星包装科技（北京）有限责任公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产指令编号：</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划生产日期：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划产量
+（只）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内包装规格
+（只/包)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产  品 批 号</t>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封边</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料批号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领料量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记  录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制袋工序记录、内包记录、外包记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>备  注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">编制人：
+日期：2017 年     月     日 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人：
+日期：2017 年      月      日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收人：
+日期：2017年      月     日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1655,7 +1779,7 @@
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1748,6 +1872,38 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1763,7 +1919,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -2440,16 +2596,348 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2621,6 +3109,96 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="79" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2744,6 +3322,171 @@
     <xf numFmtId="179" fontId="3" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="74" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="80" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2819,6 +3562,9 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2918,13 +3664,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -3314,52 +4067,52 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="32" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
     </row>
     <row r="3" spans="1:10" s="32" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="88"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="118"/>
     </row>
     <row r="4" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="91" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94" t="s">
+      <c r="D4" s="122"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="97"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="127"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="33" t="s">
@@ -3383,10 +4136,10 @@
       <c r="G5" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="79"/>
+      <c r="I5" s="109"/>
       <c r="J5" s="35" t="s">
         <v>54</v>
       </c>
@@ -3412,19 +4165,19 @@
       <c r="B7" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58" t="s">
+      <c r="D7" s="88"/>
+      <c r="E7" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58" t="s">
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="58"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="46" t="s">
         <v>60</v>
       </c>
@@ -3436,180 +4189,180 @@
       <c r="B8" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
       <c r="H8" s="49"/>
       <c r="I8" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="76"/>
+      <c r="J8" s="106"/>
     </row>
     <row r="9" spans="1:10" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="99" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
       <c r="H9" s="49"/>
       <c r="I9" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="77"/>
+      <c r="J9" s="107"/>
     </row>
     <row r="10" spans="1:10" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
       <c r="H10" s="49"/>
       <c r="I10" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="77"/>
+      <c r="J10" s="107"/>
     </row>
     <row r="11" spans="1:10" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
       <c r="H11" s="49"/>
       <c r="I11" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="77"/>
+      <c r="J11" s="107"/>
     </row>
     <row r="12" spans="1:10" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="69"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
       <c r="H12" s="49"/>
       <c r="I12" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="78"/>
+      <c r="J12" s="108"/>
     </row>
     <row r="13" spans="1:10" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="99" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
       <c r="H13" s="49"/>
       <c r="I13" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="72"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
       <c r="H14" s="49"/>
       <c r="I14" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="73"/>
+      <c r="J14" s="103"/>
     </row>
     <row r="15" spans="1:10" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
       <c r="H15" s="53"/>
       <c r="I15" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="74"/>
+      <c r="J15" s="104"/>
     </row>
     <row r="16" spans="1:10" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91"/>
     </row>
     <row r="17" spans="1:10" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
     </row>
     <row r="18" spans="1:10" s="32" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66" t="s">
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="68"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -3672,10 +4425,375 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.375" style="54" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="54" customWidth="1"/>
+    <col min="3" max="4" width="13.25" style="54" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="54" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="54" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="54" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="54" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="54" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="32" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="32" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="136" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+    </row>
+    <row r="3" spans="1:10" s="32" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="137"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="141"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="143"/>
+    </row>
+    <row r="4" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="144"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="150"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="152"/>
+    </row>
+    <row r="5" spans="1:10" s="32" customFormat="1" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="128"/>
+      <c r="J5" s="78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="80">
+        <v>1</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="130" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="131"/>
+      <c r="J7" s="173" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="153" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="174"/>
+    </row>
+    <row r="9" spans="1:10" s="32" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="155"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="175"/>
+    </row>
+    <row r="10" spans="1:10" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="153" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="83"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="176"/>
+    </row>
+    <row r="11" spans="1:10" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="154"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="176"/>
+    </row>
+    <row r="12" spans="1:10" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="154"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="176"/>
+    </row>
+    <row r="13" spans="1:10" s="51" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="155"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="177"/>
+    </row>
+    <row r="14" spans="1:10" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="156" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="83"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="161"/>
+    </row>
+    <row r="15" spans="1:10" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="157"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="162"/>
+    </row>
+    <row r="16" spans="1:10" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="158"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="163"/>
+    </row>
+    <row r="17" spans="1:10" s="32" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="178" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="179"/>
+      <c r="C17" s="180" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="182"/>
+    </row>
+    <row r="18" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="242" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="243"/>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="243"/>
+      <c r="H18" s="243"/>
+      <c r="I18" s="243"/>
+      <c r="J18" s="244"/>
+    </row>
+    <row r="19" spans="1:10" s="32" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="167"/>
+      <c r="C19" s="168" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="168"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="167" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="167"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="169"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.59055118110236227" right="0.43307086614173229" top="1.1023622047244095" bottom="0.27559055118110237" header="0.70866141732283472" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3713,72 +4831,72 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="215" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="135" t="s">
+      <c r="B3" s="216"/>
+      <c r="C3" s="221" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="144" t="s">
+      <c r="D3" s="222"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="147"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="233"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="131"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="148" t="s">
+      <c r="A4" s="217"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="149"/>
-      <c r="H4" s="150" t="s">
+      <c r="G4" s="235"/>
+      <c r="H4" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="151"/>
+      <c r="I4" s="236"/>
+      <c r="J4" s="236"/>
+      <c r="K4" s="237"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="133"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="152" t="s">
+      <c r="A5" s="219"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="153"/>
-      <c r="H5" s="154" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="155"/>
+      <c r="I5" s="240"/>
+      <c r="J5" s="240"/>
+      <c r="K5" s="241"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
@@ -3802,14 +4920,14 @@
       <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="H6" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="122"/>
-      <c r="J6" s="156" t="s">
+      <c r="I6" s="207"/>
+      <c r="J6" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="123"/>
+      <c r="K6" s="209"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="27.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
@@ -3823,8 +4941,8 @@
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="127"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="213"/>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
@@ -3833,174 +4951,174 @@
       <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99" t="s">
+      <c r="D8" s="184"/>
+      <c r="E8" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99" t="s">
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="99"/>
-      <c r="J8" s="124" t="s">
+      <c r="I8" s="184"/>
+      <c r="J8" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="125"/>
+      <c r="K8" s="211"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="198" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="56"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
       <c r="H9" s="20"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="117"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="202"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="98"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="197"/>
       <c r="H10" s="20"/>
       <c r="I10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="118"/>
-      <c r="K10" s="119"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="204"/>
     </row>
     <row r="11" spans="1:11" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="199" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="197"/>
       <c r="H11" s="20"/>
       <c r="I11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="118"/>
-      <c r="K11" s="119"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="204"/>
     </row>
     <row r="12" spans="1:11" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="114"/>
+      <c r="A12" s="199"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
+      <c r="C12" s="197"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="197"/>
       <c r="H12" s="20"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="119"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="204"/>
     </row>
     <row r="13" spans="1:11" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="114"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="21"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
       <c r="H13" s="20"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="119"/>
+      <c r="J13" s="203"/>
+      <c r="K13" s="204"/>
     </row>
     <row r="14" spans="1:11" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="114"/>
+      <c r="A14" s="199"/>
       <c r="B14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="197"/>
       <c r="H14" s="20"/>
       <c r="I14" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="120"/>
-      <c r="K14" s="121"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="206"/>
     </row>
     <row r="15" spans="1:11" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="199" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="197"/>
       <c r="H15" s="20"/>
       <c r="I15" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="106"/>
-      <c r="K15" s="107"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="192"/>
     </row>
     <row r="16" spans="1:11" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="114"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
       <c r="H16" s="20"/>
       <c r="I16" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="108"/>
-      <c r="K16" s="109"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="194"/>
     </row>
     <row r="17" spans="1:11" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="115"/>
+      <c r="A17" s="200"/>
       <c r="B17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
       <c r="H17" s="20"/>
       <c r="I17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="J17" s="110"/>
-      <c r="K17" s="111"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="196"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="99"/>
+      <c r="B18" s="184"/>
       <c r="C18" s="24" t="s">
         <v>27</v>
       </c>
@@ -4014,38 +5132,38 @@
       <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="188"/>
+      <c r="K19" s="189"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101" t="s">
+      <c r="B20" s="186"/>
+      <c r="C20" s="186" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101" t="s">
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="105"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="44">
